--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H2">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I2">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J2">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N2">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O2">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P2">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q2">
-        <v>114.0844170447037</v>
+        <v>160.0382314757087</v>
       </c>
       <c r="R2">
-        <v>114.0844170447037</v>
+        <v>1440.344083281378</v>
       </c>
       <c r="S2">
-        <v>0.01843766709241658</v>
+        <v>0.02116884545495769</v>
       </c>
       <c r="T2">
-        <v>0.01843766709241658</v>
+        <v>0.02315698751019251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H3">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I3">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J3">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N3">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P3">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q3">
-        <v>40.27603270676237</v>
+        <v>54.15130260991334</v>
       </c>
       <c r="R3">
-        <v>40.27603270676237</v>
+        <v>487.36172348922</v>
       </c>
       <c r="S3">
-        <v>0.006509180675916345</v>
+        <v>0.007162791950171583</v>
       </c>
       <c r="T3">
-        <v>0.006509180675916345</v>
+        <v>0.007835509219487679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H4">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I4">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J4">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N4">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O4">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P4">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q4">
-        <v>37.58740949355415</v>
+        <v>49.35594779709734</v>
       </c>
       <c r="R4">
-        <v>37.58740949355415</v>
+        <v>444.2035301738759</v>
       </c>
       <c r="S4">
-        <v>0.006074660861324559</v>
+        <v>0.006528492733052343</v>
       </c>
       <c r="T4">
-        <v>0.006074660861324559</v>
+        <v>0.007141637695893786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H5">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I5">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J5">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N5">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O5">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P5">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q5">
-        <v>50.57249680247754</v>
+        <v>63.76904571201599</v>
       </c>
       <c r="R5">
-        <v>50.57249680247754</v>
+        <v>573.921411408144</v>
       </c>
       <c r="S5">
-        <v>0.008173235961849276</v>
+        <v>0.008434966201764704</v>
       </c>
       <c r="T5">
-        <v>0.008173235961849276</v>
+        <v>0.009227163918730193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H6">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I6">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J6">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N6">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O6">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P6">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q6">
-        <v>27.34076861981227</v>
+        <v>35.1401498976625</v>
       </c>
       <c r="R6">
-        <v>27.34076861981227</v>
+        <v>210.840899385975</v>
       </c>
       <c r="S6">
-        <v>0.004418657717866572</v>
+        <v>0.004648116863004537</v>
       </c>
       <c r="T6">
-        <v>0.004418657717866572</v>
+        <v>0.003389773409278464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H7">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I7">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J7">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N7">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O7">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P7">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q7">
-        <v>903.4540776950582</v>
+        <v>1185.023903761803</v>
       </c>
       <c r="R7">
-        <v>903.4540776950582</v>
+        <v>10665.21513385623</v>
       </c>
       <c r="S7">
-        <v>0.1460110499692567</v>
+        <v>0.1567474699504654</v>
       </c>
       <c r="T7">
-        <v>0.1460110499692567</v>
+        <v>0.1714689264287256</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H8">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I8">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J8">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N8">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P8">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q8">
-        <v>318.9528151600726</v>
+        <v>400.9703645239689</v>
       </c>
       <c r="R8">
-        <v>318.9528151600726</v>
+        <v>3608.73328071572</v>
       </c>
       <c r="S8">
-        <v>0.05154731887533898</v>
+        <v>0.05303782477697717</v>
       </c>
       <c r="T8">
-        <v>0.05154731887533898</v>
+        <v>0.05801904730900658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H9">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I9">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J9">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N9">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O9">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P9">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q9">
-        <v>297.6611465143298</v>
+        <v>365.4625360019529</v>
       </c>
       <c r="R9">
-        <v>297.6611465143298</v>
+        <v>3289.162824017576</v>
       </c>
       <c r="S9">
-        <v>0.04810628189148498</v>
+        <v>0.04834107371010608</v>
       </c>
       <c r="T9">
-        <v>0.04810628189148498</v>
+        <v>0.0528811853492961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H10">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I10">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J10">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N10">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O10">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P10">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q10">
-        <v>400.4922814087323</v>
+        <v>472.1861944612159</v>
       </c>
       <c r="R10">
-        <v>400.4922814087323</v>
+        <v>4249.675750150944</v>
       </c>
       <c r="S10">
-        <v>0.06472525826908652</v>
+        <v>0.06245780451548705</v>
       </c>
       <c r="T10">
-        <v>0.06472525826908652</v>
+        <v>0.06832373556491959</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H11">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I11">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J11">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N11">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O11">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P11">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q11">
-        <v>216.5162389111163</v>
+        <v>260.1998111733917</v>
       </c>
       <c r="R11">
-        <v>216.5162389111163</v>
+        <v>1561.19886704035</v>
       </c>
       <c r="S11">
-        <v>0.03499210879590172</v>
+        <v>0.03441758596897986</v>
       </c>
       <c r="T11">
-        <v>0.03499210879590172</v>
+        <v>0.02510001817247546</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H12">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I12">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J12">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N12">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O12">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P12">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q12">
-        <v>488.4756220713562</v>
+        <v>582.0602848429087</v>
       </c>
       <c r="R12">
-        <v>488.4756220713562</v>
+        <v>5238.542563586178</v>
       </c>
       <c r="S12">
-        <v>0.07894461957046812</v>
+        <v>0.07699125453769093</v>
       </c>
       <c r="T12">
-        <v>0.07894461957046812</v>
+        <v>0.08422214255930591</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H13">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I13">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J13">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N13">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P13">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q13">
-        <v>172.4500211391087</v>
+        <v>196.9487061379133</v>
       </c>
       <c r="R13">
-        <v>172.4500211391087</v>
+        <v>1772.53835524122</v>
       </c>
       <c r="S13">
-        <v>0.02787038021675808</v>
+        <v>0.0260511296853476</v>
       </c>
       <c r="T13">
-        <v>0.02787038021675808</v>
+        <v>0.02849780759340923</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H14">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I14">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J14">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N14">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O14">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P14">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q14">
-        <v>160.9381343222373</v>
+        <v>179.5079636194973</v>
       </c>
       <c r="R14">
-        <v>160.9381343222373</v>
+        <v>1615.571672575476</v>
       </c>
       <c r="S14">
-        <v>0.02600989530362676</v>
+        <v>0.02374417853006632</v>
       </c>
       <c r="T14">
-        <v>0.02600989530362676</v>
+        <v>0.02597419149903402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H15">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I15">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J15">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N15">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O15">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P15">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q15">
-        <v>216.5364251772608</v>
+        <v>231.928512137616</v>
       </c>
       <c r="R15">
-        <v>216.5364251772608</v>
+        <v>2087.356609238544</v>
       </c>
       <c r="S15">
-        <v>0.03499537118409329</v>
+        <v>0.03067803727126716</v>
       </c>
       <c r="T15">
-        <v>0.03499537118409329</v>
+        <v>0.0335592664909166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H16">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I16">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J16">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N16">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O16">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P16">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q16">
-        <v>117.0650585367726</v>
+        <v>127.8049967826625</v>
       </c>
       <c r="R16">
-        <v>117.0650585367726</v>
+        <v>766.829980695975</v>
       </c>
       <c r="S16">
-        <v>0.01891938122109619</v>
+        <v>0.01690523695692175</v>
       </c>
       <c r="T16">
-        <v>0.01891938122109619</v>
+        <v>0.0123286320897455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H17">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I17">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J17">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N17">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O17">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P17">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q17">
-        <v>668.4548143671528</v>
+        <v>856.9079356984984</v>
       </c>
       <c r="R17">
-        <v>668.4548143671528</v>
+        <v>7712.171421286485</v>
       </c>
       <c r="S17">
-        <v>0.1080318211101106</v>
+        <v>0.1133463641322584</v>
       </c>
       <c r="T17">
-        <v>0.1080318211101106</v>
+        <v>0.1239916623757924</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H18">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I18">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J18">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N18">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O18">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P18">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q18">
-        <v>235.9893547590696</v>
+        <v>289.9474738440155</v>
       </c>
       <c r="R18">
-        <v>235.9893547590696</v>
+        <v>2609.52726459614</v>
       </c>
       <c r="S18">
-        <v>0.03813924173971064</v>
+        <v>0.03835241871434316</v>
       </c>
       <c r="T18">
-        <v>0.03813924173971064</v>
+        <v>0.04195441282064447</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H19">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I19">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J19">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N19">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O19">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P19">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q19">
-        <v>220.2359050115542</v>
+        <v>264.2712491338235</v>
       </c>
       <c r="R19">
-        <v>220.2359050115542</v>
+        <v>2378.441242204412</v>
       </c>
       <c r="S19">
-        <v>0.03559325982977121</v>
+        <v>0.03495613004166234</v>
       </c>
       <c r="T19">
-        <v>0.03559325982977121</v>
+        <v>0.03823915047713962</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H20">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I20">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J20">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N20">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O20">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P20">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q20">
-        <v>296.3194258943971</v>
+        <v>341.4446711805919</v>
       </c>
       <c r="R20">
-        <v>296.3194258943971</v>
+        <v>3073.002040625327</v>
       </c>
       <c r="S20">
-        <v>0.04788944072454752</v>
+        <v>0.04516414239892355</v>
       </c>
       <c r="T20">
-        <v>0.04788944072454752</v>
+        <v>0.04940588203857334</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H21">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I21">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J21">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N21">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O21">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P21">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q21">
-        <v>160.197763076183</v>
+        <v>188.1542493395542</v>
       </c>
       <c r="R21">
-        <v>160.197763076183</v>
+        <v>1128.925496037325</v>
       </c>
       <c r="S21">
-        <v>0.02589024076260212</v>
+        <v>0.0248878545409767</v>
       </c>
       <c r="T21">
-        <v>0.02589024076260212</v>
+        <v>0.01815018641387175</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H22">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I22">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J22">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N22">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O22">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P22">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q22">
-        <v>441.3420581924167</v>
+        <v>554.0486085625553</v>
       </c>
       <c r="R22">
-        <v>441.3420581924167</v>
+        <v>3324.291651375332</v>
       </c>
       <c r="S22">
-        <v>0.07132716416165003</v>
+        <v>0.07328604709666076</v>
       </c>
       <c r="T22">
-        <v>0.07132716416165003</v>
+        <v>0.05344596554717633</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H23">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I23">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J23">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N23">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O23">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P23">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q23">
-        <v>155.8101240387836</v>
+        <v>187.4705411714467</v>
       </c>
       <c r="R23">
-        <v>155.8101240387836</v>
+        <v>1124.82324702868</v>
       </c>
       <c r="S23">
-        <v>0.02518113578587632</v>
+        <v>0.02479741794708597</v>
       </c>
       <c r="T23">
-        <v>0.02518113578587632</v>
+        <v>0.01808423291695421</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H24">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I24">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J24">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N24">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O24">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P24">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q24">
-        <v>145.4090321687497</v>
+        <v>170.8691351379906</v>
       </c>
       <c r="R24">
-        <v>145.4090321687497</v>
+        <v>1025.214810827944</v>
       </c>
       <c r="S24">
-        <v>0.02350017116103907</v>
+        <v>0.02260148891552469</v>
       </c>
       <c r="T24">
-        <v>0.02350017116103907</v>
+        <v>0.0164827882762019</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H25">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I25">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J25">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N25">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O25">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P25">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q25">
-        <v>195.6425812123746</v>
+        <v>220.7669425006559</v>
       </c>
       <c r="R25">
-        <v>195.6425812123746</v>
+        <v>1324.601655003936</v>
       </c>
       <c r="S25">
-        <v>0.03161862833625532</v>
+        <v>0.02920165540612878</v>
       </c>
       <c r="T25">
-        <v>0.03161862833625532</v>
+        <v>0.02129615023031563</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H26">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I26">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J26">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N26">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O26">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P26">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q26">
-        <v>105.7693189640642</v>
+        <v>121.6543758072875</v>
       </c>
       <c r="R26">
-        <v>105.7693189640642</v>
+        <v>486.61750322915</v>
       </c>
       <c r="S26">
-        <v>0.01709382878195261</v>
+        <v>0.0160916717001756</v>
       </c>
       <c r="T26">
-        <v>0.01709382878195261</v>
+        <v>0.007823544092913191</v>
       </c>
     </row>
   </sheetData>
